--- a/statistics/响应时间_少量日志_模拟数据_序列_跨片分阶段计数_不同区块大小.xlsx
+++ b/statistics/响应时间_少量日志_模拟数据_序列_跨片分阶段计数_不同区块大小.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="跨片交易" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
   <si>
     <t>个数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>block20M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6*15，每秒发送300tx/每分，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -106,6 +102,30 @@
     <t>max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>block2M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6*15，每秒发送300tx/每分，阿里云rancher1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6*15，每秒发送100tx/每分，ruc k8s环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6*15，每秒发送100tx/每分，ruc k8s环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6*15，每秒发送300tx/每分，阿里云rancher1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6*15，每秒发送300tx/每分，阿里云rancher1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -150,11 +170,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2972,6 +2995,683 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>2M</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>响应时间序列!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>响应时间序列!$A$45:$A$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>14.968286342000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.35477075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.351492419</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.206759357999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.206759357999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.868131348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.750877538999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.509641390999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.874296287</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.861154204000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.127639477000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.237989359</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.421825523000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.469556475999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.744153731000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.048348880000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.062328130999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.355800465</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.551346954</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.498290446</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.161246934999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16.091057109000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.088326277</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.915330278000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.915330278000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.447096022</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16.235765396000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>94.618019610000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.257666852</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.317896606</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14.95342683</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F3C-4C7A-8232-453A194DA131}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>响应时间序列!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>响应时间序列!$B$45:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>3.1227749412174202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0848606888964301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1945927093378699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0921009520864802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1036598440265899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.57493365296112</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.30418676802425</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.54073874092555</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3212637720623701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2253591815884799</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3444159768740001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.24825290083789</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1836065362105002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2078604599712501</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1668031609440401</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2036397382967898</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3332956952645798</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3129325554117801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4182449624553599</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5857608403792698</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3589828870801601</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.8762963096122398</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.5750142587556</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.4868703405814099</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.2375494399648401</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.3238588401395202</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.3752344963341199</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.8765178910362699</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.97337791823306</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.6940172466856098</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.1440876142464802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2F3C-4C7A-8232-453A194DA131}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>响应时间序列!$C$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>响应时间序列!$C$45:$C$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.80220114399999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71672573500000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74904165599999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76566924599999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.719962188</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61533581199999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67399959099999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61603766000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61248918799999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65665037400000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67665388699999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.69441006199999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68332243699999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.68776074899999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.78229727900000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.65899760399999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.72773963100000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.73046612700000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.71189344099999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78729234199999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.69821678099999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.55945544000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75213156599999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.71889941800000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.78783609600000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.50487963899999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.50487963899999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.59405308499999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.77097527200000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.60595553000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.761959524</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2F3C-4C7A-8232-453A194DA131}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1246643216"/>
+        <c:axId val="1246655696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1246643216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1246655696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1246655696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1246643216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3319,6 +4019,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6364,6 +7104,522 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7096,6 +8352,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7362,59 +8650,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -7449,9 +8737,9 @@
         <v>54611</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2">
         <f>B3/K3</f>
@@ -7491,63 +8779,63 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J5">
         <v>230.07587819299999</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J6">
         <v>44.146650342251696</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
       <c r="B22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
         <v>2</v>
       </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -7583,9 +8871,9 @@
         <v>60582</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="2">
         <f>B24/K24</f>
@@ -7624,21 +8912,198 @@
         <v>3.9615727443795186E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J26">
         <v>18.994344901000002</v>
       </c>
       <c r="K26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J27">
         <v>17.647340505541599</v>
       </c>
       <c r="K27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>13</v>
       </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="4">
+        <v>15349</v>
+      </c>
+      <c r="C47" s="4">
+        <v>10691</v>
+      </c>
+      <c r="D47" s="4">
+        <v>74</v>
+      </c>
+      <c r="E47" s="4">
+        <v>45</v>
+      </c>
+      <c r="F47" s="4">
+        <v>18</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f>SUM(B47:I47)</f>
+        <v>26177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="2">
+        <f>B47/K47</f>
+        <v>0.58635443328112469</v>
+      </c>
+      <c r="C48" s="2">
+        <f>C47/K47</f>
+        <v>0.40841196470183749</v>
+      </c>
+      <c r="D48" s="2">
+        <f>D47/K47</f>
+        <v>2.8269091186919814E-3</v>
+      </c>
+      <c r="E48" s="2">
+        <f>E47/K47</f>
+        <v>1.71906635596134E-3</v>
+      </c>
+      <c r="F48" s="2">
+        <f>F47/K47</f>
+        <v>6.8762654238453604E-4</v>
+      </c>
+      <c r="G48" s="2">
+        <f>G47/K47</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <f>H47/K47</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <f>I47/K47</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <f>J47/K47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7650,37 +9115,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>56.451439598999997</v>
       </c>
@@ -7691,7 +9156,7 @@
         <v>0.67596099099999996</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>104.022153143</v>
       </c>
@@ -7702,7 +9167,7 @@
         <v>0.58637474099999998</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>202.26277351300001</v>
       </c>
@@ -7713,7 +9178,7 @@
         <v>0.67396541600000004</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>240.80729034500001</v>
       </c>
@@ -7724,7 +9189,7 @@
         <v>0.56718798800000003</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>302.01676244800001</v>
       </c>
@@ -7735,7 +9200,7 @@
         <v>0.59863282600000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>283.80155123999998</v>
       </c>
@@ -7746,7 +9211,7 @@
         <v>0.74507841799999996</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>311.91932611800001</v>
       </c>
@@ -7757,7 +9222,7 @@
         <v>0.58837591700000003</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>140.78614276299999</v>
       </c>
@@ -7768,7 +9233,7 @@
         <v>0.59960094600000002</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>186.27616429299999</v>
       </c>
@@ -7779,7 +9244,7 @@
         <v>0.60252030300000003</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>177.36525326899999</v>
       </c>
@@ -7790,7 +9255,7 @@
         <v>0.46785130400000002</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>254.28274674900001</v>
       </c>
@@ -7801,7 +9266,7 @@
         <v>0.54823012100000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>77.044702247000004</v>
       </c>
@@ -7812,7 +9277,7 @@
         <v>0.73035362199999998</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>129.05646172100001</v>
       </c>
@@ -7823,7 +9288,7 @@
         <v>0.61897762000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>172.05405289500001</v>
       </c>
@@ -7834,7 +9299,7 @@
         <v>0.60784180399999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>11.622345577999999</v>
       </c>
@@ -7845,7 +9310,7 @@
         <v>0.51919059199999995</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>61.470663666999997</v>
       </c>
@@ -7856,7 +9321,7 @@
         <v>0.48205529000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10.116674335000001</v>
       </c>
@@ -7867,7 +9332,7 @@
         <v>0.739780679</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>9.3993931390000007</v>
       </c>
@@ -7878,29 +9343,29 @@
         <v>0.52373311199999995</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
         <v>17</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>18</v>
       </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21.860502815</v>
       </c>
@@ -7911,7 +9376,7 @@
         <v>0.49409598900000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>9.4074003210000008</v>
       </c>
@@ -7922,7 +9387,7 @@
         <v>0.36984972399999999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>15.326278285000001</v>
       </c>
@@ -7933,7 +9398,7 @@
         <v>0.49605355400000001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>19.285640314999998</v>
       </c>
@@ -7944,7 +9409,7 @@
         <v>0.491702478</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>15.580530711</v>
       </c>
@@ -7955,7 +9420,7 @@
         <v>0.579758722</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>11.266056571</v>
       </c>
@@ -7966,7 +9431,7 @@
         <v>0.52313447899999999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>12.844631417</v>
       </c>
@@ -7977,7 +9442,7 @@
         <v>0.616185922</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>15.260132657</v>
       </c>
@@ -7988,7 +9453,7 @@
         <v>0.56207205999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>17.521369495999998</v>
       </c>
@@ -7999,7 +9464,7 @@
         <v>0.38962904300000001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>16.791082325000001</v>
       </c>
@@ -8010,7 +9475,7 @@
         <v>0.60695502800000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>12.770011174</v>
       </c>
@@ -8021,7 +9486,7 @@
         <v>0.59670025999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>9.5199455349999997</v>
       </c>
@@ -8032,7 +9497,7 @@
         <v>0.490310146</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>10.576863040999999</v>
       </c>
@@ -8043,7 +9508,7 @@
         <v>0.63530061400000004</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>10.728070408000001</v>
       </c>
@@ -8054,7 +9519,7 @@
         <v>0.57135767999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>9.4507640510000002</v>
       </c>
@@ -8065,7 +9530,7 @@
         <v>0.61582426300000004</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>6.541017536</v>
       </c>
@@ -8076,7 +9541,7 @@
         <v>0.74429939199999995</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>5.1283617799999996</v>
       </c>
@@ -8087,7 +9552,7 @@
         <v>0.418791886</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>5.9363371559999996</v>
       </c>
@@ -8096,6 +9561,369 @@
       </c>
       <c r="C41">
         <v>0.61173900999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>14.968286342000001</v>
+      </c>
+      <c r="B45" s="4">
+        <v>3.1227749412174202</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.80220114399999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>14.35477075</v>
+      </c>
+      <c r="B46" s="4">
+        <v>3.0848606888964301</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0.71672573500000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>14.351492419</v>
+      </c>
+      <c r="B47" s="4">
+        <v>3.1945927093378699</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.74904165599999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>15.206759357999999</v>
+      </c>
+      <c r="B48" s="4">
+        <v>3.0921009520864802</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.76566924599999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>15.206759357999999</v>
+      </c>
+      <c r="B49" s="4">
+        <v>3.1036598440265899</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.719962188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>14.868131348</v>
+      </c>
+      <c r="B50" s="4">
+        <v>3.57493365296112</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.61533581199999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>15.750877538999999</v>
+      </c>
+      <c r="B51" s="4">
+        <v>3.30418676802425</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.67399959099999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>19.509641390999999</v>
+      </c>
+      <c r="B52" s="4">
+        <v>3.54073874092555</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0.61603766000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>14.874296287</v>
+      </c>
+      <c r="B53" s="4">
+        <v>3.3212637720623701</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0.61248918799999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>19.861154204000002</v>
+      </c>
+      <c r="B54" s="4">
+        <v>3.2253591815884799</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0.65665037400000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>15.127639477000001</v>
+      </c>
+      <c r="B55" s="4">
+        <v>3.3444159768740001</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0.67665388699999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>15.237989359</v>
+      </c>
+      <c r="B56" s="4">
+        <v>3.24825290083789</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.69441006199999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>15.421825523000001</v>
+      </c>
+      <c r="B57" s="4">
+        <v>3.1836065362105002</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0.68332243699999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>15.469556475999999</v>
+      </c>
+      <c r="B58" s="4">
+        <v>3.2078604599712501</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0.68776074899999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>14.744153731000001</v>
+      </c>
+      <c r="B59" s="4">
+        <v>3.1668031609440401</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.78229727900000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>15.048348880000001</v>
+      </c>
+      <c r="B60" s="4">
+        <v>3.2036397382967898</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0.65899760399999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>15.062328130999999</v>
+      </c>
+      <c r="B61" s="4">
+        <v>3.3332956952645798</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0.72773963100000005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>15.355800465</v>
+      </c>
+      <c r="B62" s="4">
+        <v>3.3129325554117801</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.73046612700000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>15.551346954</v>
+      </c>
+      <c r="B63" s="4">
+        <v>3.4182449624553599</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0.71189344099999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>15.498290446</v>
+      </c>
+      <c r="B64" s="4">
+        <v>3.5857608403792698</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0.78729234199999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>15.161246934999999</v>
+      </c>
+      <c r="B65" s="4">
+        <v>3.3589828870801601</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0.69821678099999995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>16.091057109000001</v>
+      </c>
+      <c r="B66" s="4">
+        <v>2.8762963096122398</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0.55945544000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>16.088326277</v>
+      </c>
+      <c r="B67" s="4">
+        <v>3.5750142587556</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0.75213156599999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>15.915330278000001</v>
+      </c>
+      <c r="B68" s="4">
+        <v>3.4868703405814099</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0.71889941800000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>15.915330278000001</v>
+      </c>
+      <c r="B69" s="4">
+        <v>3.2375494399648401</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0.78783609600000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>15.447096022</v>
+      </c>
+      <c r="B70" s="4">
+        <v>3.3238588401395202</v>
+      </c>
+      <c r="C70" s="4">
+        <v>0.50487963899999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>16.235765396000001</v>
+      </c>
+      <c r="B71" s="4">
+        <v>3.3752344963341199</v>
+      </c>
+      <c r="C71" s="4">
+        <v>0.50487963899999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>94.618019610000005</v>
+      </c>
+      <c r="B72" s="4">
+        <v>3.8765178910362699</v>
+      </c>
+      <c r="C72" s="4">
+        <v>0.59405308499999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>19.257666852</v>
+      </c>
+      <c r="B73" s="4">
+        <v>3.97337791823306</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0.77097527200000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>15.317896606</v>
+      </c>
+      <c r="B74" s="4">
+        <v>3.6940172466856098</v>
+      </c>
+      <c r="C74" s="4">
+        <v>0.60595553000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <v>14.95342683</v>
+      </c>
+      <c r="B75" s="4">
+        <v>4.1440876142464802</v>
+      </c>
+      <c r="C75" s="4">
+        <v>0.761959524</v>
       </c>
     </row>
   </sheetData>
